--- a/medicine/Enfance/Diversification_menée_par_l'enfant/Diversification_menée_par_l'enfant.xlsx
+++ b/medicine/Enfance/Diversification_menée_par_l'enfant/Diversification_menée_par_l'enfant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diversification_men%C3%A9e_par_l%27enfant</t>
+          <t>Diversification_menée_par_l'enfant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La diversification menée par l'enfant (ou DME), est une méthode d'introduction de la nourriture chez les bébés, qui consiste à le laisser faire ses première expériences gustatives avec des aliments entiers et peu transformés et à le laisser manger seul les aliments avec les doigts.
-Malgré une popularité grandissante, l'intérêt de cette méthode reste largement hypothétique et n'a été que très peu avéré par la recherche médicale et scientifique[1].
+Malgré une popularité grandissante, l'intérêt de cette méthode reste largement hypothétique et n'a été que très peu avéré par la recherche médicale et scientifique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diversification_men%C3%A9e_par_l%27enfant</t>
+          <t>Diversification_menée_par_l'enfant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,13 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'enfant est encouragé à explorer la nourriture par lui même, à découvrir les goûts et les textures, ce qui lui permet de développer sa motricité fine et sa coordination main-bouche.
 À la naissance, les bébés ont un réflexe d'extrusion ou haut-le coeur lorsqu'ils introduisent des objets dans la bouche, la langue poussant l'objet hors de la bouche. En grandissant, celui-ci disparaît et lui permet alors d'avaler des aliments de taille et de texture appropriée.
-L'alimentation principale d'un enfant étant le lait jusqu'à 1 an, la diversification peut se faire très progressivement, et il ne faut pas se soucier des calories absorbées à cet âge. L'enfant sait très bien gérer par lui même la sensation de satiété et gère son appétit[2].
-Aliments proposés
-Les aliments proposés doivent être faciles à attraper, mous et d'une taille pas trop petite (par exemple carotte cuite, demi-banane, quartier d'avocat...)[3]
+L'alimentation principale d'un enfant étant le lait jusqu'à 1 an, la diversification peut se faire très progressivement, et il ne faut pas se soucier des calories absorbées à cet âge. L'enfant sait très bien gérer par lui même la sensation de satiété et gère son appétit.
 </t>
         </is>
       </c>
@@ -529,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diversification_men%C3%A9e_par_l%27enfant</t>
+          <t>Diversification_menée_par_l'enfant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +556,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Précautions</t>
+          <t>Principes</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>L'enfant doit être prêt physiologiquement (il doit pouvoir porter des aliments à sa bouche, les écraser avec sa langue, et idéalement savoir tenir assis seul)[2].
-Il doit être assis avec le dos droit, soit sur une chaise soit sur les genoux d'un adulte. S'il est incliné en arrière, il y a plus de risque de fausse route[4].
-Il doit toujours être sous la surveillance d'un adulte. Il faut en effet pouvoir réagir rapidement pour libérer ses voies aériennes dans le cas où il ferait effectivement une fausse route.</t>
+          <t>Aliments proposés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les aliments proposés doivent être faciles à attraper, mous et d'une taille pas trop petite (par exemple carotte cuite, demi-banane, quartier d'avocat...)
+</t>
         </is>
       </c>
     </row>
@@ -561,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diversification_men%C3%A9e_par_l%27enfant</t>
+          <t>Diversification_menée_par_l'enfant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,15 +593,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Avantages et inconvénients</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des recherches montrent que les enfants se nourrissent avec plus d'entrain par la suite, ont moins de risque d'obésité, et moins de risque d'étouffement avec des objets[2].
-L'enfant peut partager le repas des parents (à la condition que ceux-ci mangent sainement), il n'y a donc pas de purées à préparer ou acheter.
-Cette méthode est par contre beaucoup plus salissante, l'enfant pouvant jeter et étaler la nourriture plus facilement. L'enfant mangeant à un rythme plus lent, le repas prend également plus de temps.
-</t>
+          <t>Précautions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'enfant doit être prêt physiologiquement (il doit pouvoir porter des aliments à sa bouche, les écraser avec sa langue, et idéalement savoir tenir assis seul).
+Il doit être assis avec le dos droit, soit sur une chaise soit sur les genoux d'un adulte. S'il est incliné en arrière, il y a plus de risque de fausse route.
+Il doit toujours être sous la surveillance d'un adulte. Il faut en effet pouvoir réagir rapidement pour libérer ses voies aériennes dans le cas où il ferait effectivement une fausse route.</t>
         </is>
       </c>
     </row>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diversification_men%C3%A9e_par_l%27enfant</t>
+          <t>Diversification_menée_par_l'enfant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,15 +627,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Avantages et inconvénients</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des recherches montrent que les enfants se nourrissent avec plus d'entrain par la suite, ont moins de risque d'obésité, et moins de risque d'étouffement avec des objets.
+L'enfant peut partager le repas des parents (à la condition que ceux-ci mangent sainement), il n'y a donc pas de purées à préparer ou acheter.
+Cette méthode est par contre beaucoup plus salissante, l'enfant pouvant jeter et étaler la nourriture plus facilement. L'enfant mangeant à un rythme plus lent, le repas prend également plus de temps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diversification_menée_par_l'enfant</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diversification_men%C3%A9e_par_l%27enfant</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La diversification menée par l'enfant a pu être utilisée par de nombreuses cultures, mais son usage est devenu connu en occident récemment grâce à Gill Rapley et son ouvrage Baby-Led-Weaning qui a permis de populariser la DME sous ce terme anglais dans tous les pays anglophone depuis 2001[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diversification menée par l'enfant a pu être utilisée par de nombreuses cultures, mais son usage est devenu connu en occident récemment grâce à Gill Rapley et son ouvrage Baby-Led-Weaning qui a permis de populariser la DME sous ce terme anglais dans tous les pays anglophone depuis 2001.
 Le Canada recommande officiellement les finger foods comme méthode de diversification.
-En Europe et aux États-Unis, la pratique se développe de plus en plus grâce aux parents en demande de plus de bienveillance dans leur éducation et dans l'alimentation de leurs enfants[4].
-En France Christine Zalejski, docteure en biologie et experte en alimentation infantile depuis 2010 a édité le premier livre en France sur la DME[6] qui a rencontré un grand succès. Elle a également publié un second ouvrage en pas à pas à l'usage des parents et des professionnels en s'attachant à y regrouper toutes les connaissances scientifiques sur le sujet.
+En Europe et aux États-Unis, la pratique se développe de plus en plus grâce aux parents en demande de plus de bienveillance dans leur éducation et dans l'alimentation de leurs enfants.
+En France Christine Zalejski, docteure en biologie et experte en alimentation infantile depuis 2010 a édité le premier livre en France sur la DME qui a rencontré un grand succès. Elle a également publié un second ouvrage en pas à pas à l'usage des parents et des professionnels en s'attachant à y regrouper toutes les connaissances scientifiques sur le sujet.
 </t>
         </is>
       </c>
